--- a/Trust-Fee_Simulator.xlsx
+++ b/Trust-Fee_Simulator.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rurog\OneDrive\ドキュメント\Workspace\Finance\Investment\Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/95348cfa5d2a13f0/ドキュメント/Workspace/Finance/Investment/Tools/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41459090-60EB-4724-8D32-71590B490C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{41459090-60EB-4724-8D32-71590B490C0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C9F64D13-0BEF-48A5-835B-97B9675CEF71}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="信託報酬シミュレーター" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">信託報酬シミュレーター!$B$7:$E$7</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -113,8 +116,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="179" formatCode="#,##0_ "/>
-    <numFmt numFmtId="180" formatCode="0.0000%"/>
+    <numFmt numFmtId="176" formatCode="#,##0_ "/>
+    <numFmt numFmtId="177" formatCode="0.0000%"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -220,7 +223,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -228,14 +231,14 @@
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="180" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="177" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="176" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -519,8 +522,8 @@
   <dimension ref="A1:E58"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="7" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1"/>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="58" spans="2:5"/>
   </sheetData>
-  <sheetProtection sheet="1" objects="1" scenarios="1"/>
+  <autoFilter ref="B7:E7" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
